--- a/xls/square_high_un_16_tri3_25.xlsx
+++ b/xls/square_high_un_16_tri3_25.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.5183108381619552</v>
+        <v>-0.00020197291954107615</v>
       </c>
       <c r="J25">
-        <v>-1.235766594884931</v>
+        <v>-0.00018478098034726282</v>
       </c>
       <c r="K25">
-        <v>1.6940190730297608</v>
+        <v>2.561617794252151</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-0.5086359783797831</v>
+        <v>-5.035203678166256e-5</v>
       </c>
       <c r="J26">
-        <v>-0.47943923658501625</v>
+        <v>-5.4633209902063765e-5</v>
       </c>
       <c r="K26">
-        <v>2.53925669324021</v>
+        <v>2.339066723577009</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-0.0008345605687231148</v>
+        <v>-3.6705335503947136e-5</v>
       </c>
       <c r="J27">
-        <v>-0.0010565699688827909</v>
+        <v>-3.9077770749593555e-5</v>
       </c>
       <c r="K27">
-        <v>3.00429905978843</v>
+        <v>2.260975659104006</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-0.00019436398783519076</v>
+        <v>-4.850865487117454e-5</v>
       </c>
       <c r="J28">
-        <v>-0.00020506665879901312</v>
+        <v>-4.744299609871554e-5</v>
       </c>
       <c r="K28">
-        <v>2.6237097124805557</v>
+        <v>2.2794420971862452</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-8.178564801219129e-5</v>
+        <v>-2.6181013884683522e-5</v>
       </c>
       <c r="J29">
-        <v>-9.128912046869744e-5</v>
+        <v>-2.511624504764479e-5</v>
       </c>
       <c r="K29">
-        <v>2.4582558996047292</v>
+        <v>2.139629529478537</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-5.4848418229348717e-5</v>
+        <v>-1.6979105222198333e-5</v>
       </c>
       <c r="J30">
-        <v>-5.444887233289788e-5</v>
+        <v>-1.6982648300565044e-5</v>
       </c>
       <c r="K30">
-        <v>2.3244971309251095</v>
+        <v>2.062670780766243</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-3.762227838343784e-5</v>
+        <v>-1.2649761053832298e-5</v>
       </c>
       <c r="J31">
-        <v>-3.771550128749097e-5</v>
+        <v>-1.2941252078831582e-5</v>
       </c>
       <c r="K31">
-        <v>2.2480745662166073</v>
+        <v>2.0130315589497396</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-2.574776052834224e-5</v>
+        <v>-1.0044120152599635e-5</v>
       </c>
       <c r="J32">
-        <v>-2.6525501145414823e-5</v>
+        <v>-1.0384473024373674e-5</v>
       </c>
       <c r="K32">
-        <v>2.1764632470645005</v>
+        <v>1.9660987008648652</v>
       </c>
     </row>
   </sheetData>
